--- a/doc/D4_ドキュメント/04_機能一覧_D4.xlsx
+++ b/doc/D4_ドキュメント/04_機能一覧_D4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\D4_ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B156D41-C6CE-442C-A112-76CBDA340127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6170D0E9-BC67-408E-80C2-CBC8599CE7E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,8 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="165">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -141,12 +139,6 @@
   </si>
   <si>
     <t>task02</t>
-  </si>
-  <si>
-    <t>memo01</t>
-  </si>
-  <si>
-    <t>memo02</t>
   </si>
   <si>
     <t>１日のスケ
@@ -157,16 +149,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン後の遷移ではログイン日の長期目標、短期目標、todoリスト、雑務の表示</t>
-    <rPh sb="34" eb="36">
-      <t>ザツム</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>sche01</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -419,29 +401,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>memo03</t>
-  </si>
-  <si>
     <t>入力欄の右横に＋・－のボタンが横並びに表示され、＋をタップするとタスク入力欄が一つずつ追加する。－をタップすると消去する</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>雑務入力欄追加・消
-去機能</t>
-    <rPh sb="0" eb="2">
-      <t>ザツム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タスク追加</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>雑務追加</t>
-    <rPh sb="0" eb="2">
-      <t>ザツム</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -684,23 +648,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>目標・Todo・雑務
-表示機能</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ザツム</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ポップアップ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -965,47 +912,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>雑務追加</t>
-    <rPh sb="0" eb="2">
-      <t>ザツム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>雑務入力フォーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>task04</t>
   </si>
   <si>
     <t>task05</t>
-  </si>
-  <si>
-    <t>雑務</t>
-    <rPh sb="0" eb="2">
-      <t>ザツム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>雑務を入力するテキストエリア。入力済みの雑務も別の入力欄に表示され、文章を編集できる機能</t>
-    <rPh sb="0" eb="2">
-      <t>ザツム</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ザツム</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>memo04</t>
   </si>
   <si>
     <t>達成度
@@ -1177,28 +1087,6 @@
     <rPh sb="16" eb="17">
       <t>ゴ</t>
     </rPh>
-    <rPh sb="20" eb="21">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力フォームの内容をサーバに送信後、「1日のスケジュール」へ遷移</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ゴ</t>
-    </rPh>
     <rPh sb="30" eb="32">
       <t>センイ</t>
     </rPh>
@@ -1385,6 +1273,120 @@
   </si>
   <si>
     <t>ユーザーが一番最初に訪れるページ。アプリの紹介、説明を表示。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ記入フォーム</t>
+    <rPh sb="2" eb="4">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sche06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモが書き込める。</t>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ登録ボタン</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sche07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書き込まれたメモを登録。</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>目標・Todo・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>メモ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+表示機能</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ログイン後の遷移ではログイン日の長期目標、短期目標、todoリスト、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>メモ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の表示</t>
+    </r>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1392,7 +1394,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1425,6 +1427,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1446,7 +1455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1521,13 +1530,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1541,9 +1585,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1570,16 +1611,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1920,10 +2000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I60"/>
+  <dimension ref="B2:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1947,8 +2027,8 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="2" t="s">
@@ -1958,22 +2038,22 @@
       <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -1981,1224 +2061,1142 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="26" x14ac:dyDescent="0.2">
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="39" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="10">
+        <v>4</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <v>5</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
+      <c r="G12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <v>6</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="7">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11">
+        <v>8</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="17.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="10">
+        <v>9</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="7">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="7">
+        <v>11</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
+        <v>12</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" s="19" customFormat="1" ht="39.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="17">
+        <v>13</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <v>14</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="52" x14ac:dyDescent="0.2">
+      <c r="B22" s="7">
         <v>15</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="B23" s="7">
         <v>16</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="39" x14ac:dyDescent="0.2">
-      <c r="B9" s="8">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="14">
         <v>17</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
-        <v>3</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" s="24" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="2:9" s="29" customFormat="1" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="13" t="s">
+      <c r="E26" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="I26" s="25"/>
+    </row>
+    <row r="27" spans="2:9" ht="54.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="10">
         <v>18</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="11">
-        <v>4</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="C27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="7">
+        <v>19</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="7">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="39.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="11">
+        <v>21</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="52.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="10">
+        <v>22</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="E31" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="52" x14ac:dyDescent="0.2">
+      <c r="B32" s="7">
+        <v>23</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="52" x14ac:dyDescent="0.2">
+      <c r="B33" s="7">
+        <v>24</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="52" x14ac:dyDescent="0.2">
+      <c r="B34" s="7">
+        <v>25</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="39" x14ac:dyDescent="0.2">
+      <c r="B35" s="7">
+        <v>26</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="7">
+        <v>27</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="G36" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="8">
-        <v>5</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="I36" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="11">
+        <v>28</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="52.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="10">
+        <v>29</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="52" x14ac:dyDescent="0.2">
+      <c r="B39" s="7">
+        <v>30</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="52" x14ac:dyDescent="0.2">
+      <c r="B40" s="7">
+        <v>31</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="7">
+        <v>32</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="E41" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="11">
+        <v>33</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="8">
-        <v>6</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="8">
-        <v>7</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
-        <v>8</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="G42" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="26.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="10">
+        <v>39</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="13" t="s">
+      <c r="E43" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="39" x14ac:dyDescent="0.2">
+      <c r="B44" s="7">
+        <v>40</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="17.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="11">
-        <v>9</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="16" t="s">
+      <c r="E44" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="B45" s="7">
+        <v>41</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="11">
+        <v>42</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="8">
-        <v>10</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="8">
-        <v>11</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="12">
-        <v>12</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="39.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="11">
-        <v>13</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="8">
-        <v>14</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="52" x14ac:dyDescent="0.2">
-      <c r="B22" s="8">
-        <v>15</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="26" x14ac:dyDescent="0.2">
-      <c r="B23" s="8">
-        <v>16</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="12">
-        <v>17</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="54.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="11">
-        <v>18</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="8">
-        <v>19</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="9" t="s">
+      <c r="F46" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="117.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="10">
+        <v>43</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="39" x14ac:dyDescent="0.2">
+      <c r="B48" s="7">
         <v>44</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="8">
-        <v>20</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="39.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="12">
-        <v>21</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="52.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="11">
-        <v>22</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="10" t="s">
+      <c r="C48" s="7"/>
+      <c r="D48" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="65" x14ac:dyDescent="0.2">
+      <c r="B49" s="7">
+        <v>45</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="52" x14ac:dyDescent="0.2">
-      <c r="B30" s="8">
-        <v>23</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="52" x14ac:dyDescent="0.2">
-      <c r="B31" s="8">
-        <v>24</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="9" t="s">
+      <c r="E49" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="7">
+        <v>46</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="7">
         <v>47</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="9" t="s">
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="7">
+        <v>48</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="7">
+        <v>49</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="7">
         <v>50</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="52" x14ac:dyDescent="0.2">
-      <c r="B32" s="8">
-        <v>25</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="9" t="s">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="7">
         <v>51</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="39" x14ac:dyDescent="0.2">
-      <c r="B33" s="8">
-        <v>26</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="8">
-        <v>27</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="12">
-        <v>28</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="52.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="11">
-        <v>29</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="52" x14ac:dyDescent="0.2">
-      <c r="B37" s="8">
-        <v>30</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="52" x14ac:dyDescent="0.2">
-      <c r="B38" s="8">
-        <v>31</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" s="9" t="s">
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="7">
         <v>52</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="7"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="7">
         <v>53</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="8">
-        <v>32</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="12">
-        <v>33</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="39.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="11">
-        <v>34</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="52" x14ac:dyDescent="0.2">
-      <c r="B42" s="8">
-        <v>35</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="52" x14ac:dyDescent="0.2">
-      <c r="B43" s="8">
-        <v>36</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="8">
-        <v>37</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="12">
-        <v>38</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" ht="26.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="11">
-        <v>39</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="39" x14ac:dyDescent="0.2">
-      <c r="B47" s="8">
-        <v>40</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="26" x14ac:dyDescent="0.2">
-      <c r="B48" s="8">
-        <v>41</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="12">
-        <v>42</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="117.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="11">
-        <v>43</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="39" x14ac:dyDescent="0.2">
-      <c r="B51" s="8">
-        <v>44</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="65" x14ac:dyDescent="0.2">
-      <c r="B52" s="8">
-        <v>45</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="8">
-        <v>46</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="8"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="8">
-        <v>47</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="8"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="8">
-        <v>48</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="8"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="8">
-        <v>49</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="8"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="8">
-        <v>50</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="8"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="8">
-        <v>51</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="8"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="8">
-        <v>52</v>
-      </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="8"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="8">
-        <v>53</v>
-      </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="8"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/D4_ドキュメント/04_機能一覧_D4.xlsx
+++ b/doc/D4_ドキュメント/04_機能一覧_D4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\D4_ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6170D0E9-BC67-408E-80C2-CBC8599CE7E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCBD164-3B78-4C49-A36C-9C80202FF0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="168">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1385,6 +1385,48 @@
       <t>の表示</t>
     </r>
     <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインするためのID表示</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>newregist06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録ボタンをタップ後、ログインユーザーのIDと「次回以降ログイン時に必要になるので、必ず記録して下さい」と表示する</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>ジカイイコウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>クダ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1571,7 +1613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1620,46 +1662,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2000,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I57"/>
+  <dimension ref="B2:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2027,8 +2048,8 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="2" t="s">
@@ -2038,22 +2059,22 @@
       <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -2135,7 +2156,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
+      <c r="B10" s="7">
         <v>3</v>
       </c>
       <c r="C10" s="11"/>
@@ -2159,7 +2180,7 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>4</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -2256,457 +2277,461 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11">
+    <row r="15" spans="2:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="7">
         <v>8</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="17.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="10">
+      <c r="I15" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="7">
         <v>9</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7">
         <v>10</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="D17" s="10" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7">
         <v>11</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="7">
+        <v>12</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11">
-        <v>12</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11" t="s">
+      <c r="I19" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>13</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E20" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F20" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G20" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H20" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I19" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" s="19" customFormat="1" ht="39.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="17">
-        <v>13</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="39.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7">
         <v>14</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="52" x14ac:dyDescent="0.2">
+      <c r="E21" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7">
         <v>15</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="8" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" ht="52" x14ac:dyDescent="0.2">
       <c r="B23" s="7">
         <v>16</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="B24" s="7">
+        <v>17</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F24" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H24" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="14">
-        <v>17</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15" t="s">
+    <row r="25" spans="2:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="7">
+        <v>18</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E25" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F25" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G25" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H25" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I25" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="24" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22" t="s">
+    <row r="26" spans="2:9" s="18" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <v>19</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E26" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F26" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H26" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26" spans="2:9" s="29" customFormat="1" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27" t="s">
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="2:9" s="21" customFormat="1" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
+        <v>20</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E27" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F27" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G27" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H27" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="2:9" ht="54.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="10">
-        <v>18</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="2:9" ht="54.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="7">
+        <v>21</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H28" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="7">
-        <v>19</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="7">
+        <v>23</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F30" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H30" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="39.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="11">
-        <v>21</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11" t="s">
+      <c r="I30" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="39.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
+        <v>24</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E31" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F31" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G31" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H31" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I30" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="52.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="10">
-        <v>22</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="I31" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="52.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="7">
+        <v>25</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F32" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H32" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I31" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="52" x14ac:dyDescent="0.2">
-      <c r="B32" s="7">
-        <v>23</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="52" x14ac:dyDescent="0.2">
       <c r="B33" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="8" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>151</v>
@@ -2714,7 +2739,7 @@
     </row>
     <row r="34" spans="2:9" ht="52" x14ac:dyDescent="0.2">
       <c r="B34" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="8" t="s">
@@ -2724,399 +2749,411 @@
         <v>115</v>
       </c>
       <c r="F34" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="52" x14ac:dyDescent="0.2">
+      <c r="B35" s="7">
+        <v>28</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H35" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I34" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="39" x14ac:dyDescent="0.2">
-      <c r="B35" s="7">
-        <v>26</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="8" t="s">
+      <c r="I35" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="39" x14ac:dyDescent="0.2">
+      <c r="B36" s="7">
+        <v>29</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F36" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="I35" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="7">
-        <v>27</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10" t="s">
+      <c r="I36" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="7">
+        <v>30</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E37" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F37" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H37" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I36" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="11">
-        <v>28</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11" t="s">
+      <c r="I37" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
+        <v>31</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E38" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F38" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G38" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="H38" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="I37" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="52.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="10">
-        <v>29</v>
-      </c>
-      <c r="C38" s="10" t="s">
+      <c r="I38" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="52.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="7">
+        <v>32</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E39" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F39" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G39" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H39" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I38" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="52" x14ac:dyDescent="0.2">
-      <c r="B39" s="7">
-        <v>30</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="52" x14ac:dyDescent="0.2">
       <c r="B40" s="7">
-        <v>31</v>
-      </c>
-      <c r="C40" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="C40" s="9"/>
       <c r="D40" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="52" x14ac:dyDescent="0.2">
+      <c r="B41" s="7">
+        <v>34</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E41" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F41" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H41" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I40" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="7">
-        <v>32</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="10" t="s">
+      <c r="I41" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="7">
+        <v>35</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E42" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F42" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H42" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I41" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="11">
-        <v>33</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11" t="s">
+      <c r="I42" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="7">
+        <v>36</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E43" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F43" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G43" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H43" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="I42" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="26.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="10">
-        <v>39</v>
-      </c>
-      <c r="C43" s="9" t="s">
+      <c r="I43" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="26.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="7">
+        <v>37</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D44" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F44" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G44" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H44" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="I43" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" ht="39" x14ac:dyDescent="0.2">
-      <c r="B44" s="7">
-        <v>40</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="I44" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="39" x14ac:dyDescent="0.2">
       <c r="B45" s="7">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="B46" s="7">
+        <v>39</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F46" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H46" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="I45" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="11">
+      <c r="I46" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="7">
+        <v>40</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="117.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="7">
+        <v>41</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="39" x14ac:dyDescent="0.2">
+      <c r="B49" s="7">
         <v>42</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11" t="s">
+      <c r="C49" s="7"/>
+      <c r="D49" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="65" x14ac:dyDescent="0.2">
+      <c r="B50" s="7">
+        <v>43</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E50" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I46" s="11" t="s">
+      <c r="F50" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I50" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" ht="117.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="10">
-        <v>43</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="39" x14ac:dyDescent="0.2">
-      <c r="B48" s="7">
-        <v>44</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="65" x14ac:dyDescent="0.2">
-      <c r="B49" s="7">
-        <v>45</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="7">
-        <v>46</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="7"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="7">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -3128,7 +3165,7 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="7">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -3140,7 +3177,7 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="7">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -3152,7 +3189,7 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -3164,7 +3201,7 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="7">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -3176,7 +3213,7 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="7">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -3188,7 +3225,7 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="7">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -3197,6 +3234,18 @@
       <c r="G57" s="7"/>
       <c r="H57" s="8"/>
       <c r="I57" s="7"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="7">
+        <v>51</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
